--- a/data/merged/processed/WC_dcrab_da_mgmt_zones.xlsx
+++ b/data/merged/processed/WC_dcrab_da_mgmt_zones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/merged/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D88D3D-1AE7-D847-B052-9E1A46CA8F49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168CD5B9-1EB4-9849-ABC8-66BA1BF05E7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="7000" windowWidth="34480" windowHeight="22680" xr2:uid="{7639D694-A665-8640-8F62-6D0B72C91E29}"/>
+    <workbookView xWindow="3420" yWindow="2880" windowWidth="34480" windowHeight="22680" xr2:uid="{7639D694-A665-8640-8F62-6D0B72C91E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="117">
   <si>
     <t>Point Chehalis</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t>CA/Mexico border</t>
+  </si>
+  <si>
+    <t>lat_dd</t>
+  </si>
+  <si>
+    <t>long_dd</t>
   </si>
 </sst>
 </file>
@@ -764,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB2DA1A-79DC-4241-B089-1CF4419EE7A5}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,7 +790,7 @@
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -815,8 +821,14 @@
       <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -847,8 +859,10 @@
         <f>47+40/60+30/3600</f>
         <v>47.674999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -879,8 +893,10 @@
         <f>47+18/60+21/3600</f>
         <v>47.305833333333332</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -911,8 +927,10 @@
         <f>46+53/60+18/3600</f>
         <v>46.888333333333335</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -943,8 +961,10 @@
         <f>46+15/60</f>
         <v>46.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -963,8 +983,14 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="2">
+        <v>46.955266999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <v>-124.05073299999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -983,8 +1009,14 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="2">
+        <v>46.540933000000003</v>
+      </c>
+      <c r="L7" s="2">
+        <v>-123.972545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1003,8 +1035,14 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="2">
+        <v>46.283661000000002</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-123.704545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
@@ -1037,8 +1075,10 @@
         <f>45+46/60</f>
         <v>45.766666666666666</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
@@ -1071,8 +1111,10 @@
         <f>45+20.3/60</f>
         <v>45.338333333333331</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
@@ -1105,8 +1147,10 @@
         <f>45+4/60</f>
         <v>45.06666666666667</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>67</v>
       </c>
@@ -1139,8 +1183,10 @@
         <f>44+46.4/60</f>
         <v>44.773333333333333</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1173,8 +1219,10 @@
         <f>44+26/60</f>
         <v>44.43333333333333</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
@@ -1207,8 +1255,10 @@
         <f>44+8.3/60</f>
         <v>44.138333333333335</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
@@ -1241,8 +1291,10 @@
         <f>43+47/60</f>
         <v>43.783333333333331</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
@@ -1275,8 +1327,10 @@
         <f>43+25/60</f>
         <v>43.416666666666664</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>67</v>
       </c>
@@ -1309,8 +1363,10 @@
         <f>43+7/60</f>
         <v>43.116666666666667</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
@@ -1343,8 +1399,10 @@
         <f>42+50/60</f>
         <v>42.833333333333336</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
@@ -1377,8 +1435,10 @@
         <f>42+26/60</f>
         <v>42.43333333333333</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
@@ -1411,8 +1471,10 @@
         <f>42+0/60</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
@@ -1442,8 +1504,10 @@
         <f>41+17.6/60</f>
         <v>41.293333333333337</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
@@ -1474,8 +1538,10 @@
         <f>40+46.15/60</f>
         <v>40.769166666666663</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
@@ -1506,8 +1572,10 @@
         <f>40+10/60</f>
         <v>40.166666666666664</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>30</v>
       </c>
@@ -1538,8 +1606,10 @@
         <f>39+33.3/60</f>
         <v>39.555</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
@@ -1570,8 +1640,10 @@
         <f>38+46.125/60</f>
         <v>38.768749999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
@@ -1602,8 +1674,10 @@
         <f>38</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -1634,8 +1708,10 @@
         <f>37+11/60</f>
         <v>37.18333333333333</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
@@ -1665,8 +1741,10 @@
       <c r="J28" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
@@ -1693,6 +1771,8 @@
       <c r="J29" s="8">
         <v>32.534343</v>
       </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:J32">

--- a/data/merged/processed/WC_dcrab_da_mgmt_zones.xlsx
+++ b/data/merged/processed/WC_dcrab_da_mgmt_zones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/merged/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168CD5B9-1EB4-9849-ABC8-66BA1BF05E7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EB176D-FC89-0442-988E-82F88CA0836D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2880" windowWidth="34480" windowHeight="22680" xr2:uid="{7639D694-A665-8640-8F62-6D0B72C91E29}"/>
+    <workbookView xWindow="18300" yWindow="2020" windowWidth="34480" windowHeight="22680" xr2:uid="{7639D694-A665-8640-8F62-6D0B72C91E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
   <si>
     <t>Point Chehalis</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
     <t>42°</t>
   </si>
   <si>
@@ -75,12 +69,6 @@
     <t>41°17.6'</t>
   </si>
   <si>
-    <t>Humboldt Bay North Jetty</t>
-  </si>
-  <si>
-    <t>40°46.15'</t>
-  </si>
-  <si>
     <t>Cape Mendocino</t>
   </si>
   <si>
@@ -120,9 +108,6 @@
     <t>California</t>
   </si>
   <si>
-    <t>Proposed</t>
-  </si>
-  <si>
     <t>zone_id</t>
   </si>
   <si>
@@ -364,9 +349,6 @@
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>CA/Mexico border</t>
@@ -770,1013 +752,894 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB2DA1A-79DC-4241-B089-1CF4419EE7A5}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <f>48+26/60</f>
         <v>48.43333333333333</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2">
+      <c r="I2" s="2">
         <f>47+40/60+30/3600</f>
         <v>47.674999999999997</v>
       </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <f>47+40/60+30/3600</f>
         <v>47.674999999999997</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2">
+      <c r="I3" s="2">
         <f>47+18/60+21/3600</f>
         <v>47.305833333333332</v>
       </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <f>47+18/60+21/3600</f>
         <v>47.305833333333332</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="2">
+      <c r="I4" s="2">
         <f>46+53/60+18/3600</f>
         <v>46.888333333333335</v>
       </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <f>46+53/60+18/3600</f>
         <v>46.888333333333335</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="2">
+      <c r="I5" s="2">
         <f>46+15/60</f>
         <v>46.25</v>
       </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>46.955266999999999</v>
+      </c>
       <c r="K6" s="2">
-        <v>46.955266999999999</v>
-      </c>
-      <c r="L6" s="2">
         <v>-124.05073299999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>46.540933000000003</v>
+      </c>
       <c r="K7" s="2">
-        <v>46.540933000000003</v>
-      </c>
-      <c r="L7" s="2">
         <v>-123.972545</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>46.283661000000002</v>
+      </c>
       <c r="K8" s="2">
-        <v>46.283661000000002</v>
-      </c>
-      <c r="L8" s="2">
         <v>-123.704545</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="4">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4">
         <f>46+15/60</f>
         <v>46.25</v>
       </c>
+      <c r="G9" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="H9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="4">
+        <v>34</v>
+      </c>
+      <c r="I9" s="4">
         <f>45+46/60</f>
         <v>45.766666666666666</v>
       </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>62</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4">
         <f>45+46/60</f>
         <v>45.766666666666666</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="H10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="4">
+        <v>37</v>
+      </c>
+      <c r="I10" s="4">
         <f>45+20.3/60</f>
         <v>45.338333333333331</v>
       </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="4">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4">
         <f>45+20.3/60</f>
         <v>45.338333333333331</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="H11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="4">
+        <v>40</v>
+      </c>
+      <c r="I11" s="4">
         <f>45+4/60</f>
         <v>45.06666666666667</v>
       </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="4">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4">
         <f>45+4/60</f>
         <v>45.06666666666667</v>
       </c>
+      <c r="G12" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="H12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="4">
+        <v>42</v>
+      </c>
+      <c r="I12" s="4">
         <f>44+46.4/60</f>
         <v>44.773333333333333</v>
       </c>
+      <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="4">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4">
         <f>44+46.4/60</f>
         <v>44.773333333333333</v>
       </c>
+      <c r="G13" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="H13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="4">
+        <v>44</v>
+      </c>
+      <c r="I13" s="4">
         <f>44+26/60</f>
         <v>44.43333333333333</v>
       </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="4">
+        <v>48</v>
+      </c>
+      <c r="F14" s="4">
         <f>44+26/60</f>
         <v>44.43333333333333</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="H14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="4">
+        <v>47</v>
+      </c>
+      <c r="I14" s="4">
         <f>44+8.3/60</f>
         <v>44.138333333333335</v>
       </c>
+      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="4">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4">
         <f>44+8.3/60</f>
         <v>44.138333333333335</v>
       </c>
+      <c r="G15" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="H15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="4">
+        <v>50</v>
+      </c>
+      <c r="I15" s="4">
         <f>43+47/60</f>
         <v>43.783333333333331</v>
       </c>
+      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="4">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4">
         <f>43+47/60</f>
         <v>43.783333333333331</v>
       </c>
+      <c r="G16" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="H16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="4">
+        <v>52</v>
+      </c>
+      <c r="I16" s="4">
         <f>43+25/60</f>
         <v>43.416666666666664</v>
       </c>
+      <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="4">
+        <v>52</v>
+      </c>
+      <c r="F17" s="4">
         <f>43+25/60</f>
         <v>43.416666666666664</v>
       </c>
+      <c r="G17" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="H17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="4">
+        <v>54</v>
+      </c>
+      <c r="I17" s="4">
         <f>43+7/60</f>
         <v>43.116666666666667</v>
       </c>
+      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="4">
+        <v>54</v>
+      </c>
+      <c r="F18" s="4">
         <f>43+7/60</f>
         <v>43.116666666666667</v>
       </c>
+      <c r="G18" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="H18" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="4">
+        <v>56</v>
+      </c>
+      <c r="I18" s="4">
         <f>42+50/60</f>
         <v>42.833333333333336</v>
       </c>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D19" s="4" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="4">
+        <v>56</v>
+      </c>
+      <c r="F19" s="4">
         <f>42+50/60</f>
         <v>42.833333333333336</v>
       </c>
+      <c r="G19" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="H19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="4">
+        <v>58</v>
+      </c>
+      <c r="I19" s="4">
         <f>42+26/60</f>
         <v>42.43333333333333</v>
       </c>
+      <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="4">
+        <v>61</v>
+      </c>
+      <c r="F20" s="4">
         <f>42+26/60</f>
         <v>42.43333333333333</v>
       </c>
+      <c r="G20" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="H20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="4">
+        <v>60</v>
+      </c>
+      <c r="I20" s="4">
         <f>42+0/60</f>
         <v>42</v>
       </c>
+      <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="E21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="8">
+        <v>42</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="8">
-        <v>42</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="8">
+      <c r="I21" s="8">
         <f>41+17.6/60</f>
         <v>41.293333333333337</v>
       </c>
+      <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="8">
+        <v>13</v>
+      </c>
+      <c r="F22" s="8">
         <f>41+17.6/60</f>
         <v>41.293333333333337</v>
       </c>
+      <c r="G22" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="8">
-        <f>40+46.15/60</f>
-        <v>40.769166666666663</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="8">
-        <f>40+46.15/60</f>
-        <v>40.769166666666663</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="8">
+        <v>15</v>
+      </c>
+      <c r="I22" s="8">
         <f>40+10/60</f>
         <v>40.166666666666664</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="8">
         <f>40+10/60</f>
         <v>40.166666666666664</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="8">
+      <c r="G23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="8">
         <f>39+33.3/60</f>
         <v>39.555</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8">
         <f>39+33.3/60</f>
         <v>39.555</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="8">
+      <c r="G24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="8">
         <f>38+46.125/60</f>
         <v>38.768749999999997</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="8">
         <f>38+46.125/60</f>
         <v>38.768749999999997</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="8">
+      <c r="G25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="8">
         <f>38</f>
         <v>38</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="8">
         <f>38</f>
         <v>38</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="8">
+      <c r="G26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="8">
         <f>37+11/60</f>
         <v>37.18333333333333</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="B27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="8">
         <f>37+11/60</f>
         <v>37.18333333333333</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="8">
+      <c r="G27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="8">
         <v>36</v>
       </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="8">
+        <v>36</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="8">
+        <v>32.534343</v>
+      </c>
+      <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="8">
-        <v>36</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="8">
-        <v>32.534343</v>
-      </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J32">
-    <sortCondition descending="1" ref="G2:G32"/>
+  <sortState ref="A2:I31">
+    <sortCondition descending="1" ref="F2:F31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
